--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>92.477947318189052</v>
+        <v>92.477947320518865</v>
       </c>
       <c r="C2">
-        <v>91.823723649078488</v>
+        <v>91.823723651595941</v>
       </c>
       <c r="D2">
-        <v>93.357286751135419</v>
+        <v>93.357286758086317</v>
       </c>
       <c r="E2">
-        <v>90.957411213130428</v>
+        <v>90.957411215194099</v>
       </c>
       <c r="F2">
-        <v>95.925799196638309</v>
+        <v>95.925799198401364</v>
       </c>
       <c r="G2">
-        <v>95.396901465791331</v>
+        <v>95.396901465062754</v>
       </c>
       <c r="H2">
-        <v>93.984900942199147</v>
+        <v>93.984900945525567</v>
       </c>
       <c r="I2">
-        <v>94.90890148021856</v>
+        <v>94.908901478224124</v>
       </c>
       <c r="J2">
-        <v>92.564195588624841</v>
+        <v>92.564195593598512</v>
       </c>
       <c r="K2">
-        <v>94.561520847534879</v>
+        <v>94.561520845345541</v>
       </c>
       <c r="L2">
-        <v>96.64102138127663</v>
+        <v>96.641021383166944</v>
       </c>
       <c r="N2">
-        <v>94.57707660443252</v>
+        <v>94.577076604544203</v>
       </c>
       <c r="O2">
-        <v>93.391657229555335</v>
+        <v>93.391657235873353</v>
       </c>
       <c r="P2">
-        <v>94.397475360992928</v>
+        <v>94.397475363100099</v>
       </c>
       <c r="Q2">
-        <v>96.282608144748593</v>
+        <v>96.2826081516708</v>
       </c>
       <c r="S2">
-        <v>91.027750629449343</v>
+        <v>91.027750662305692</v>
       </c>
       <c r="V2">
-        <v>95.966045524485139</v>
+        <v>95.966045531176746</v>
       </c>
       <c r="W2">
-        <v>95.273967547720574</v>
+        <v>95.273967551686937</v>
       </c>
       <c r="X2">
-        <v>93.482979286164962</v>
+        <v>93.482979291081136</v>
       </c>
       <c r="AA2">
-        <v>91.76085787233599</v>
+        <v>91.760857879325542</v>
       </c>
       <c r="AB2">
-        <v>90.766023187596517</v>
+        <v>90.766023201255976</v>
       </c>
       <c r="AC2">
-        <v>94.258960840180237</v>
+        <v>94.258960839846239</v>
       </c>
       <c r="AD2">
-        <v>89.86580525330848</v>
+        <v>89.865805268665184</v>
       </c>
       <c r="AE2">
-        <v>94.8796102461678</v>
+        <v>94.879610246711238</v>
       </c>
       <c r="AF2">
-        <v>93.75333121376751</v>
+        <v>93.753331215039708</v>
       </c>
       <c r="AG2">
-        <v>94.159448772983183</v>
+        <v>94.159448779773513</v>
       </c>
       <c r="AH2">
-        <v>93.75405484683975</v>
+        <v>93.754054856048086</v>
       </c>
       <c r="AI2">
-        <v>90.934132332190643</v>
+        <v>90.934132347422548</v>
       </c>
       <c r="AJ2">
-        <v>93.799305468971411</v>
+        <v>93.799305471642867</v>
       </c>
       <c r="AK2">
-        <v>94.636880356230549</v>
+        <v>94.636880362479587</v>
       </c>
       <c r="AL2">
-        <v>92.760254111381983</v>
+        <v>92.760254117793366</v>
       </c>
       <c r="AM2">
-        <v>93.196219512974636</v>
+        <v>93.19621952464972</v>
       </c>
       <c r="AN2">
-        <v>94.440979869891777</v>
+        <v>94.440979878641414</v>
       </c>
       <c r="AO2">
-        <v>92.806345436074949</v>
+        <v>92.806345448027216</v>
       </c>
       <c r="AQ2">
-        <v>94.450505269141232</v>
+        <v>94.450505279159486</v>
       </c>
       <c r="AR2">
-        <v>91.09072162638715</v>
+        <v>91.090721622698183</v>
       </c>
       <c r="AS2">
-        <v>92.871813482264471</v>
+        <v>92.87181349363955</v>
       </c>
       <c r="AU2">
-        <v>94.094826742707653</v>
+        <v>94.094826748281633</v>
       </c>
       <c r="AV2">
-        <v>93.531279552136354</v>
+        <v>93.531279566003263</v>
       </c>
       <c r="AW2">
-        <v>93.196232913570725</v>
+        <v>93.196232923394533</v>
       </c>
       <c r="AX2">
-        <v>90.83597822349941</v>
+        <v>90.835978229886166</v>
       </c>
       <c r="AY2">
-        <v>90.927962604491839</v>
+        <v>90.927962616023493</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92.32783500631723</v>
+        <v>92.32783501245143</v>
       </c>
       <c r="C3">
-        <v>93.128431780379174</v>
+        <v>93.128431787556849</v>
       </c>
       <c r="E3">
-        <v>91.950422343205602</v>
+        <v>91.950422346814335</v>
       </c>
       <c r="F3">
-        <v>95.586108702429414</v>
+        <v>95.586108707370244</v>
       </c>
       <c r="G3">
-        <v>92.650889356452467</v>
+        <v>92.650889360869712</v>
       </c>
       <c r="H3">
-        <v>96.784265052041988</v>
+        <v>96.784265054024118</v>
       </c>
       <c r="J3">
-        <v>91.167891147650749</v>
+        <v>91.167891159956113</v>
       </c>
       <c r="K3">
-        <v>90.209140252494905</v>
+        <v>90.209140256501229</v>
       </c>
       <c r="L3">
-        <v>95.058093683258733</v>
+        <v>95.058093690957705</v>
       </c>
       <c r="M3">
-        <v>93.02570194726863</v>
+        <v>93.025728745717302</v>
       </c>
       <c r="N3">
-        <v>93.934020845419525</v>
+        <v>93.934020850837427</v>
       </c>
       <c r="P3">
-        <v>93.144918260840186</v>
+        <v>93.1449182735319</v>
       </c>
       <c r="Q3">
-        <v>94.772207641752331</v>
+        <v>94.77220764667851</v>
       </c>
       <c r="R3">
-        <v>97.000469494399312</v>
+        <v>97.000469506419734</v>
       </c>
       <c r="W3">
-        <v>94.379086467428692</v>
+        <v>94.37908647747544</v>
       </c>
       <c r="AA3">
-        <v>91.771418831591973</v>
+        <v>91.771418840782488</v>
       </c>
       <c r="AB3">
-        <v>91.216768525367428</v>
+        <v>91.216768533478202</v>
       </c>
       <c r="AC3">
-        <v>93.794737173761789</v>
+        <v>93.794737176134916</v>
       </c>
       <c r="AD3">
-        <v>90.956983326837886</v>
+        <v>90.95698333295384</v>
       </c>
       <c r="AE3">
-        <v>93.882177721858255</v>
+        <v>93.882177724117582</v>
       </c>
       <c r="AF3">
-        <v>93.148843968486503</v>
+        <v>93.148843974703141</v>
       </c>
       <c r="AG3">
-        <v>93.956052867026969</v>
+        <v>93.956052875375519</v>
       </c>
       <c r="AH3">
-        <v>92.086884234593583</v>
+        <v>92.086884243557279</v>
       </c>
       <c r="AI3">
-        <v>86.877641140141719</v>
+        <v>86.877641141246798</v>
       </c>
       <c r="AJ3">
-        <v>94.007657182464698</v>
+        <v>94.007657190898541</v>
       </c>
       <c r="AK3">
-        <v>93.995006731834906</v>
+        <v>93.995006737945289</v>
       </c>
       <c r="AL3">
-        <v>92.323359336636486</v>
+        <v>92.323359347780865</v>
       </c>
       <c r="AM3">
-        <v>91.621125959584617</v>
+        <v>91.621125973895516</v>
       </c>
       <c r="AN3">
-        <v>95.330811215949851</v>
+        <v>95.330811222795234</v>
       </c>
       <c r="AO3">
-        <v>92.644892873879343</v>
+        <v>92.644892879010783</v>
       </c>
       <c r="AP3">
-        <v>94.697685950948923</v>
+        <v>94.697685957691277</v>
       </c>
       <c r="AQ3">
-        <v>94.88403390795807</v>
+        <v>94.884033914750077</v>
       </c>
       <c r="AS3">
-        <v>95.194812591134408</v>
+        <v>95.194812593064327</v>
       </c>
       <c r="AT3">
-        <v>90.240259648737293</v>
+        <v>90.240259658103255</v>
       </c>
       <c r="AU3">
-        <v>95.028750255042382</v>
+        <v>95.028750257053289</v>
       </c>
       <c r="AV3">
-        <v>94.532347090681242</v>
+        <v>94.532347097139365</v>
       </c>
       <c r="AW3">
-        <v>93.693359966882738</v>
+        <v>93.69335997465484</v>
       </c>
       <c r="AX3">
-        <v>92.901752470792914</v>
+        <v>92.901752479407563</v>
       </c>
       <c r="AY3">
-        <v>89.128813290775298</v>
+        <v>89.128813301118953</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>92.477947320518865</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>91.823723651595941</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>93.357286758086317</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>90.957411215194099</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>95.925799198401364</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.396901465062754</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>93.984900945525567</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>94.908901478224124</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>92.564195593598512</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>94.561520845345541</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>96.641021383166944</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>94.577076604544203</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>93.391657235873353</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>94.397475363100099</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>96.2826081516708</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>91.027750662305692</v>
+        <v>92.696292583305066</v>
       </c>
       <c r="V2">
         <v>95.966045531176746</v>
@@ -570,52 +465,55 @@
         <v>93.482979291081136</v>
       </c>
       <c r="AA2">
-        <v>91.760857879325542</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>90.766023201255976</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>94.258960839846239</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>89.865805268665184</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>94.879610246711238</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>93.753331215039708</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>94.159448779773513</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>93.754054856048086</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>90.934132347422548</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>93.799305471642867</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>94.636880362479587</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>92.760254117793366</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>93.19621952464972</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>94.440979878641414</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>92.806345448027216</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>94.450505279159486</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>91.090721622698183</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>92.32783501245143</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>93.128431787556849</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>91.950422346814335</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>95.586108707370244</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>92.650889360869712</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>96.784265054024118</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>91.167891159956113</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>90.209140256501229</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.058093690957705</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>93.025728745717302</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>93.934020850837427</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>93.1449182735319</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>94.77220764667851</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>97.000469506419734</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>94.37908647747544</v>
       </c>
       <c r="AA3">
-        <v>91.771418840782488</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>91.216768533478202</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>93.794737176134916</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>90.95698333295384</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>93.882177724117582</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>93.148843974703141</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>93.956052875375519</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>92.086884243557279</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>86.877641141246798</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>94.007657190898541</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>93.995006737945289</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>92.323359347780865</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>91.621125973895516</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>95.330811222795234</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>92.644892879010783</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>94.697685957691277</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>94.884033914750077</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>95.194812593064327</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>92.477947318189052</v>
-      </c>
-      <c r="C2">
-        <v>92.368096267108228</v>
+        <v>93.391657235873353</v>
       </c>
       <c r="D2">
-        <v>93.357286751135419</v>
+        <v>94.440979878641414</v>
       </c>
       <c r="E2">
-        <v>90.957411213130428</v>
+        <v>94.450505279159486</v>
       </c>
       <c r="F2">
         <v>95.925799196638309</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>92.32783500631723</v>
-      </c>
       <c r="C3">
-        <v>93.128431780379174</v>
+        <v>97.000469506419734</v>
+      </c>
+      <c r="D3">
+        <v>95.128685951079902</v>
       </c>
       <c r="E3">
-        <v>91.950422343205602</v>
+        <v>94.700599725404615</v>
       </c>
       <c r="F3">
         <v>95.586108702429414</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>92.477947318189052</v>
+        <v>94.77317618170018</v>
       </c>
       <c r="C2">
-        <v>92.368096267108228</v>
+        <v>93.391657235873353</v>
       </c>
       <c r="D2">
-        <v>93.357286751135419</v>
+        <v>93.19621952464972</v>
       </c>
       <c r="E2">
-        <v>90.957411213130428</v>
+        <v>94.440979878641414</v>
       </c>
       <c r="F2">
         <v>95.925799196638309</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92.32783500631723</v>
-      </c>
-      <c r="C3">
-        <v>93.128431780379174</v>
+        <v>93.934020850837427</v>
+      </c>
+      <c r="D3">
+        <v>91.621125973895516</v>
       </c>
       <c r="E3">
-        <v>90.645915019914355</v>
+        <v>95.128685951079902</v>
       </c>
       <c r="F3">
         <v>95.586108702429414</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>92.477947320518865</v>
+      </c>
+      <c r="C2">
+        <v>92.368096269083694</v>
+      </c>
+      <c r="D2">
+        <v>93.357286758086317</v>
+      </c>
+      <c r="E2">
+        <v>90.957411215194099</v>
+      </c>
+      <c r="F2">
+        <v>95.925799198401364</v>
+      </c>
+      <c r="G2">
+        <v>94.536358246878066</v>
+      </c>
+      <c r="H2">
+        <v>93.984900945525567</v>
+      </c>
+      <c r="I2">
+        <v>94.112116850387451</v>
+      </c>
+      <c r="J2">
+        <v>92.564195593598512</v>
+      </c>
+      <c r="K2">
+        <v>94.561520845345541</v>
+      </c>
+      <c r="L2">
+        <v>96.596604700984656</v>
+      </c>
+      <c r="N2">
         <v>94.77317618170018</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>93.391657235873353</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>94.084916416110957</v>
+      </c>
+      <c r="Q2">
+        <v>96.2826081516708</v>
+      </c>
+      <c r="V2">
+        <v>95.382704721157268</v>
+      </c>
+      <c r="W2">
+        <v>95.273967551686937</v>
+      </c>
+      <c r="X2">
+        <v>93.482979291081136</v>
+      </c>
+      <c r="AA2">
+        <v>91.760857879325542</v>
+      </c>
+      <c r="AB2">
+        <v>90.766023201255976</v>
+      </c>
+      <c r="AC2">
+        <v>94.258960839846239</v>
+      </c>
+      <c r="AD2">
+        <v>89.865805268665184</v>
+      </c>
+      <c r="AE2">
+        <v>94.879610246711238</v>
+      </c>
+      <c r="AF2">
+        <v>93.753331215039708</v>
+      </c>
+      <c r="AG2">
+        <v>94.159448779773513</v>
+      </c>
+      <c r="AH2">
+        <v>93.754054856048086</v>
+      </c>
+      <c r="AI2">
+        <v>90.934132347422548</v>
+      </c>
+      <c r="AJ2">
+        <v>93.799305471642867</v>
+      </c>
+      <c r="AK2">
+        <v>94.636880362479587</v>
+      </c>
+      <c r="AL2">
+        <v>92.760254117793366</v>
+      </c>
+      <c r="AM2">
         <v>93.19621952464972</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>94.440979878641414</v>
       </c>
-      <c r="F2">
-        <v>95.925799196638309</v>
-      </c>
-      <c r="G2">
-        <v>94.536358247361179</v>
-      </c>
-      <c r="H2">
-        <v>93.984900942199147</v>
-      </c>
-      <c r="I2">
-        <v>94.112116853541224</v>
-      </c>
-      <c r="J2">
-        <v>92.564195588624841</v>
-      </c>
-      <c r="K2">
-        <v>94.561520847534879</v>
-      </c>
-      <c r="L2">
-        <v>96.596604697412388</v>
-      </c>
-      <c r="N2">
-        <v>94.773176180598668</v>
-      </c>
-      <c r="O2">
-        <v>93.391657229555335</v>
-      </c>
-      <c r="P2">
-        <v>94.084916415602095</v>
-      </c>
-      <c r="Q2">
-        <v>96.282608144748593</v>
-      </c>
-      <c r="V2">
-        <v>95.382704711435665</v>
-      </c>
-      <c r="W2">
-        <v>95.273967547720574</v>
-      </c>
-      <c r="X2">
-        <v>93.482979286164962</v>
-      </c>
-      <c r="AA2">
-        <v>91.76085787233599</v>
-      </c>
-      <c r="AB2">
-        <v>90.766023187596517</v>
-      </c>
-      <c r="AC2">
-        <v>94.258960840180237</v>
-      </c>
-      <c r="AD2">
-        <v>89.86580525330848</v>
-      </c>
-      <c r="AE2">
-        <v>94.8796102461678</v>
-      </c>
-      <c r="AF2">
-        <v>93.75333121376751</v>
-      </c>
-      <c r="AG2">
-        <v>94.159448772983183</v>
-      </c>
-      <c r="AH2">
-        <v>93.75405484683975</v>
-      </c>
-      <c r="AI2">
-        <v>90.934132332190643</v>
-      </c>
-      <c r="AJ2">
-        <v>93.799305468971411</v>
-      </c>
-      <c r="AK2">
-        <v>94.636880356230549</v>
-      </c>
-      <c r="AL2">
-        <v>92.760254111381983</v>
-      </c>
-      <c r="AM2">
-        <v>93.196219512974636</v>
-      </c>
-      <c r="AN2">
-        <v>94.440979869891777</v>
-      </c>
       <c r="AO2">
-        <v>92.806345436074949</v>
+        <v>92.806345448027216</v>
       </c>
       <c r="AQ2">
-        <v>94.450505269141232</v>
+        <v>94.450505279159486</v>
       </c>
       <c r="AR2">
-        <v>91.09072162638715</v>
+        <v>91.090721622698183</v>
       </c>
       <c r="AS2">
-        <v>92.871813482264471</v>
+        <v>92.87181349363955</v>
       </c>
       <c r="AU2">
-        <v>95.23479737508373</v>
+        <v>95.234797382945089</v>
       </c>
       <c r="AV2">
-        <v>93.531279552136354</v>
+        <v>93.531279566003263</v>
       </c>
       <c r="AW2">
-        <v>93.196232913570725</v>
+        <v>93.196232923394533</v>
       </c>
       <c r="AX2">
-        <v>90.83597822349941</v>
+        <v>90.835978229886166</v>
       </c>
       <c r="AY2">
-        <v>90.927962604491839</v>
+        <v>90.927962616023493</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>92.32783501245143</v>
+      </c>
+      <c r="C3">
+        <v>93.128431787556849</v>
+      </c>
+      <c r="E3">
+        <v>90.645915018899615</v>
+      </c>
+      <c r="F3">
+        <v>95.586108707370244</v>
+      </c>
+      <c r="G3">
+        <v>92.650889360869712</v>
+      </c>
+      <c r="H3">
+        <v>96.784265054024118</v>
+      </c>
+      <c r="J3">
+        <v>91.167891159956113</v>
+      </c>
+      <c r="K3">
+        <v>90.460055801407478</v>
+      </c>
+      <c r="L3">
+        <v>95.058093690957705</v>
+      </c>
+      <c r="M3">
+        <v>93.823384172399173</v>
+      </c>
+      <c r="N3">
         <v>93.934020850837427</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>93.1449182735319</v>
+      </c>
+      <c r="Q3">
+        <v>94.77220764667851</v>
+      </c>
+      <c r="R3">
+        <v>97.000469506419734</v>
+      </c>
+      <c r="W3">
+        <v>94.37908647747544</v>
+      </c>
+      <c r="AA3">
+        <v>91.771418840782488</v>
+      </c>
+      <c r="AB3">
+        <v>91.216768533478202</v>
+      </c>
+      <c r="AC3">
+        <v>93.794737176134916</v>
+      </c>
+      <c r="AD3">
+        <v>90.95698333295384</v>
+      </c>
+      <c r="AE3">
+        <v>93.882177724117582</v>
+      </c>
+      <c r="AF3">
+        <v>93.148843974703141</v>
+      </c>
+      <c r="AG3">
+        <v>93.956052875375519</v>
+      </c>
+      <c r="AH3">
+        <v>92.086884243557279</v>
+      </c>
+      <c r="AI3">
+        <v>92.162864183338229</v>
+      </c>
+      <c r="AJ3">
+        <v>94.007657190898541</v>
+      </c>
+      <c r="AK3">
+        <v>93.995006737945289</v>
+      </c>
+      <c r="AL3">
+        <v>92.323359347780865</v>
+      </c>
+      <c r="AM3">
         <v>91.621125973895516</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>95.128685951079902</v>
       </c>
-      <c r="F3">
-        <v>95.586108702429414</v>
-      </c>
-      <c r="G3">
-        <v>92.650889356452467</v>
-      </c>
-      <c r="H3">
-        <v>96.784265052041988</v>
-      </c>
-      <c r="J3">
-        <v>91.167891147650749</v>
-      </c>
-      <c r="K3">
-        <v>90.460055796830403</v>
-      </c>
-      <c r="L3">
-        <v>95.058093683258733</v>
-      </c>
-      <c r="M3">
-        <v>93.823409389596705</v>
-      </c>
-      <c r="N3">
-        <v>93.934020845419525</v>
-      </c>
-      <c r="P3">
-        <v>93.144918260840186</v>
-      </c>
-      <c r="Q3">
-        <v>94.772207641752331</v>
-      </c>
-      <c r="R3">
-        <v>97.000469494399312</v>
-      </c>
-      <c r="W3">
-        <v>94.379086467428692</v>
-      </c>
-      <c r="AA3">
-        <v>91.771418831591973</v>
-      </c>
-      <c r="AB3">
-        <v>91.216768525367428</v>
-      </c>
-      <c r="AC3">
-        <v>93.794737173761789</v>
-      </c>
-      <c r="AD3">
-        <v>90.956983326837886</v>
-      </c>
-      <c r="AE3">
-        <v>93.882177721858255</v>
-      </c>
-      <c r="AF3">
-        <v>93.148843968486503</v>
-      </c>
-      <c r="AG3">
-        <v>93.956052867026969</v>
-      </c>
-      <c r="AH3">
-        <v>92.086884234593583</v>
-      </c>
-      <c r="AI3">
-        <v>92.162864170017073</v>
-      </c>
-      <c r="AJ3">
-        <v>94.007657182464698</v>
-      </c>
-      <c r="AK3">
-        <v>93.995006731834906</v>
-      </c>
-      <c r="AL3">
-        <v>92.323359336636486</v>
-      </c>
-      <c r="AM3">
-        <v>91.621125959584617</v>
-      </c>
-      <c r="AN3">
-        <v>95.128685943715297</v>
-      </c>
       <c r="AO3">
-        <v>92.644892873879343</v>
+        <v>92.644892879010783</v>
       </c>
       <c r="AP3">
-        <v>94.697685950948923</v>
+        <v>94.697685957691277</v>
       </c>
       <c r="AQ3">
-        <v>94.700599722528921</v>
+        <v>94.700599725404615</v>
       </c>
       <c r="AS3">
-        <v>95.194812591134408</v>
+        <v>95.194812593064327</v>
       </c>
       <c r="AT3">
-        <v>90.240259648737293</v>
+        <v>90.240259658103255</v>
       </c>
       <c r="AU3">
-        <v>94.829447604449342</v>
+        <v>94.829447606847012</v>
       </c>
       <c r="AV3">
-        <v>94.532347090681242</v>
+        <v>94.532347097139365</v>
       </c>
       <c r="AW3">
-        <v>93.693359966882738</v>
+        <v>93.69335997465484</v>
       </c>
       <c r="AX3">
-        <v>92.901752470792914</v>
+        <v>92.901752479407563</v>
       </c>
       <c r="AY3">
-        <v>89.128813290775298</v>
+        <v>89.128813301118953</v>
       </c>
     </row>
   </sheetData>
